--- a/docs/国有林コード.xlsx
+++ b/docs/国有林コード.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOC\Dropbox\GitHub\fgb_twin_test\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56A567F3-C6D7-405B-B01E-BDB7085B25CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E72577-FE66-4B15-B8F6-D9061D57ED05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98886EF3-95AD-4D4A-B75E-F48096BC0F45}"/>
+    <workbookView xWindow="345" yWindow="3480" windowWidth="16200" windowHeight="11385" xr2:uid="{98886EF3-95AD-4D4A-B75E-F48096BC0F45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -322,21 +322,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> ? '</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>#00AA00</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>' :</t>
+  </si>
+  <si>
+    <t>' ? '</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,12 +702,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F06612-66C1-4C27-812D-24D57A436627}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -716,17 +720,17 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F1" t="str">
         <f>_xlfn.CONCAT(A1:E1)</f>
-        <v>d2 == 'スギ ? '#00AA00' :</v>
+        <v>d2 == 'スギ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -737,17 +741,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F65" si="0">_xlfn.CONCAT(A2:E2)</f>
-        <v>d2 == 'ヒノキ ? '#00AA00' :</v>
+        <v>d2 == 'ヒノキ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -758,17 +762,17 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'サワラ ? '#00AA00' :</v>
+        <v>d2 == 'サワラ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -779,17 +783,17 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'イタヤカエデ ? '#00AA00' :</v>
+        <v>d2 == 'イタヤカエデ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -800,17 +804,17 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'カラマツ ? '#00AA00' :</v>
+        <v>d2 == 'カラマツ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -821,17 +825,17 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'アカマツ ? '#00AA00' :</v>
+        <v>d2 == 'アカマツ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -842,17 +846,17 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'クロマツ ? '#00AA00' :</v>
+        <v>d2 == 'クロマツ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -863,17 +867,17 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ヒメコマツ ? '#00AA00' :</v>
+        <v>d2 == 'ヒメコマツ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -884,17 +888,17 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'トドマツ ? '#00AA00' :</v>
+        <v>d2 == 'トドマツ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -905,17 +909,17 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'アオトド ? '#00AA00' :</v>
+        <v>d2 == 'アオトド' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -926,17 +930,17 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'エゾマツ ? '#00AA00' :</v>
+        <v>d2 == 'エゾマツ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -947,17 +951,17 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ミズメ ? '#00AA00' :</v>
+        <v>d2 == 'ミズメ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -968,17 +972,17 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == '琉球マツ ? '#00AA00' :</v>
+        <v>d2 == '琉球マツ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -989,17 +993,17 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'コウヤマキ ? '#00AA00' :</v>
+        <v>d2 == 'コウヤマキ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -1010,17 +1014,17 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'アカエゾマツ ? '#00AA00' :</v>
+        <v>d2 == 'アカエゾマツ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -1031,17 +1035,17 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'シラベ ? '#00AA00' :</v>
+        <v>d2 == 'シラベ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -1052,17 +1056,17 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'トガサワラ ? '#00AA00' :</v>
+        <v>d2 == 'トガサワラ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -1073,17 +1077,17 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ツガ ? '#00AA00' :</v>
+        <v>d2 == 'ツガ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -1094,17 +1098,17 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'コメツガ ? '#00AA00' :</v>
+        <v>d2 == 'コメツガ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -1115,17 +1119,17 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ハリモミ ? '#00AA00' :</v>
+        <v>d2 == 'ハリモミ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -1136,17 +1140,17 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'トウヒ ? '#00AA00' :</v>
+        <v>d2 == 'トウヒ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -1157,17 +1161,17 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ネズコ ? '#00AA00' :</v>
+        <v>d2 == 'ネズコ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -1178,17 +1182,17 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'イヌマキ ? '#00AA00' :</v>
+        <v>d2 == 'イヌマキ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -1199,17 +1203,17 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ナギ ? '#00AA00' :</v>
+        <v>d2 == 'ナギ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -1220,17 +1224,17 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'イチョウ ? '#00AA00' :</v>
+        <v>d2 == 'イチョウ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -1241,17 +1245,17 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'カヤ ? '#00AA00' :</v>
+        <v>d2 == 'カヤ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -1262,17 +1266,17 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'フランスカイガンショウ ? '#00AA00' :</v>
+        <v>d2 == 'フランスカイガンショウ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -1283,17 +1287,17 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'リキダマツ ? '#00AA00' :</v>
+        <v>d2 == 'リキダマツ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -1304,17 +1308,17 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == '他Ｎ ? '#00AA00' :</v>
+        <v>d2 == '他Ｎ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -1325,17 +1329,17 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'マダケ ? '#00AA00' :</v>
+        <v>d2 == 'マダケ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -1346,17 +1350,17 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ハチク ? '#00AA00' :</v>
+        <v>d2 == 'ハチク' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -1367,17 +1371,17 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ヤマサクラ ? '#00AA00' :</v>
+        <v>d2 == 'ヤマサクラ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
@@ -1388,17 +1392,17 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'シデ ? '#00AA00' :</v>
+        <v>d2 == 'シデ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -1409,17 +1413,17 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'シオジ ? '#00AA00' :</v>
+        <v>d2 == 'シオジ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -1430,17 +1434,17 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ニレ ? '#00AA00' :</v>
+        <v>d2 == 'ニレ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
@@ -1451,17 +1455,17 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'モウソウチク ? '#00AA00' :</v>
+        <v>d2 == 'モウソウチク' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -1472,17 +1476,17 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'キリ ? '#00AA00' :</v>
+        <v>d2 == 'キリ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -1493,17 +1497,17 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ツゲ ? '#00AA00' :</v>
+        <v>d2 == 'ツゲ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
@@ -1514,17 +1518,17 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ヤマグルマ ? '#00AA00' :</v>
+        <v>d2 == 'ヤマグルマ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
@@ -1535,17 +1539,17 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ミズキ ? '#00AA00' :</v>
+        <v>d2 == 'ミズキ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
@@ -1556,17 +1560,17 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ブナ ? '#00AA00' :</v>
+        <v>d2 == 'ブナ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -1577,17 +1581,17 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'イヌブナ ? '#00AA00' :</v>
+        <v>d2 == 'イヌブナ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
@@ -1598,17 +1602,17 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'クリ ? '#00AA00' :</v>
+        <v>d2 == 'クリ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
@@ -1619,17 +1623,17 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ヤナギ ? '#00AA00' :</v>
+        <v>d2 == 'ヤナギ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
@@ -1640,17 +1644,17 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'アカガシ ? '#00AA00' :</v>
+        <v>d2 == 'アカガシ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -1661,17 +1665,17 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'シラカシ ? '#00AA00' :</v>
+        <v>d2 == 'シラカシ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
@@ -1682,17 +1686,17 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ツクバネカシ ? '#00AA00' :</v>
+        <v>d2 == 'ツクバネカシ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
@@ -1703,17 +1707,17 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'イチイガシ ? '#00AA00' :</v>
+        <v>d2 == 'イチイガシ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
@@ -1724,17 +1728,17 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'アラカシ ? '#00AA00' :</v>
+        <v>d2 == 'アラカシ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
@@ -1745,17 +1749,17 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ウバメガシ ? '#00AA00' :</v>
+        <v>d2 == 'ウバメガシ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
@@ -1766,17 +1770,17 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'クヌギ ? '#00AA00' :</v>
+        <v>d2 == 'クヌギ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -1787,17 +1791,17 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'アベマキ ? '#00AA00' :</v>
+        <v>d2 == 'アベマキ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
@@ -1808,17 +1812,17 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ミズナラ ? '#00AA00' :</v>
+        <v>d2 == 'ミズナラ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
@@ -1829,17 +1833,17 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'コナラ ? '#00AA00' :</v>
+        <v>d2 == 'コナラ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
@@ -1850,17 +1854,17 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'カシワ ? '#00AA00' :</v>
+        <v>d2 == 'カシワ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
@@ -1871,17 +1875,17 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'シイ ? '#00AA00' :</v>
+        <v>d2 == 'シイ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
@@ -1892,17 +1896,17 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'サワグルミ ? '#00AA00' :</v>
+        <v>d2 == 'サワグルミ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
@@ -1913,17 +1917,17 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'オニグルミ ? '#00AA00' :</v>
+        <v>d2 == 'オニグルミ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
@@ -1934,17 +1938,17 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ウダイカンバ ? '#00AA00' :</v>
+        <v>d2 == 'ウダイカンバ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
@@ -1955,17 +1959,17 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'モミ ? '#00AA00' :</v>
+        <v>d2 == 'モミ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
@@ -1976,17 +1980,17 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ハンノキ ? '#00AA00' :</v>
+        <v>d2 == 'ハンノキ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
@@ -1997,17 +2001,17 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'ケヤキ ? '#00AA00' :</v>
+        <v>d2 == 'ケヤキ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
@@ -2018,17 +2022,17 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'クス ? '#00AA00' :</v>
+        <v>d2 == 'クス' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
@@ -2039,17 +2043,17 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'タブ ? '#00AA00' :</v>
+        <v>d2 == 'タブ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
@@ -2060,17 +2064,17 @@
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>d2 == 'イス ? '#00AA00' :</v>
+        <v>d2 == 'イス' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
@@ -2081,17 +2085,17 @@
         <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" ref="F66:F94" si="1">_xlfn.CONCAT(A66:E66)</f>
-        <v>d2 == 'サクラ ? '#00AA00' :</v>
+        <v>d2 == 'サクラ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
@@ -2102,17 +2106,17 @@
         <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'ウワミズサクラ ? '#00AA00' :</v>
+        <v>d2 == 'ウワミズサクラ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
@@ -2123,17 +2127,17 @@
         <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'キハダ ? '#00AA00' :</v>
+        <v>d2 == 'キハダ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
@@ -2144,17 +2148,17 @@
         <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'ヤチダモ ? '#00AA00' :</v>
+        <v>d2 == 'ヤチダモ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
@@ -2165,17 +2169,17 @@
         <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'カエデ ? '#00AA00' :</v>
+        <v>d2 == 'カエデ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
@@ -2186,17 +2190,17 @@
         <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'トチノキ ? '#00AA00' :</v>
+        <v>d2 == 'トチノキ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
@@ -2207,17 +2211,17 @@
         <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'シナノキ ? '#00AA00' :</v>
+        <v>d2 == 'シナノキ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
@@ -2228,17 +2232,17 @@
         <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'アサダ ? '#00AA00' :</v>
+        <v>d2 == 'アサダ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
@@ -2249,17 +2253,17 @@
         <v>73</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'センノキ ? '#00AA00' :</v>
+        <v>d2 == 'センノキ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -2270,17 +2274,17 @@
         <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'コブシ ? '#00AA00' :</v>
+        <v>d2 == 'コブシ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
@@ -2291,17 +2295,17 @@
         <v>75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'アオダモ ? '#00AA00' :</v>
+        <v>d2 == 'アオダモ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
@@ -2312,17 +2316,17 @@
         <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'エノキ ? '#00AA00' :</v>
+        <v>d2 == 'エノキ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -2333,17 +2337,17 @@
         <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'イヌエンジュ ? '#00AA00' :</v>
+        <v>d2 == 'イヌエンジュ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
@@ -2354,17 +2358,17 @@
         <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'モチノキ ? '#00AA00' :</v>
+        <v>d2 == 'モチノキ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
@@ -2375,17 +2379,17 @@
         <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'ヤマモモ ? '#00AA00' :</v>
+        <v>d2 == 'ヤマモモ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
@@ -2396,17 +2400,17 @@
         <v>80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'ダケカンバ ? '#00AA00' :</v>
+        <v>d2 == 'ダケカンバ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
@@ -2417,17 +2421,17 @@
         <v>81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'ムクノキ ? '#00AA00' :</v>
+        <v>d2 == 'ムクノキ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
@@ -2438,17 +2442,17 @@
         <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'エゴノキ ? '#00AA00' :</v>
+        <v>d2 == 'エゴノキ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
@@ -2459,17 +2463,17 @@
         <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'ポプラ ? '#00AA00' :</v>
+        <v>d2 == 'ポプラ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
@@ -2480,17 +2484,17 @@
         <v>84</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == '他Ｌ ? '#00AA00' :</v>
+        <v>d2 == '他Ｌ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
@@ -2501,17 +2505,17 @@
         <v>85</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'シラカバ ? '#00AA00' :</v>
+        <v>d2 == 'シラカバ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
@@ -2522,17 +2526,17 @@
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'カンバ ? '#00AA00' :</v>
+        <v>d2 == 'カンバ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
@@ -2543,17 +2547,17 @@
         <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'イチイ ? '#00AA00' :</v>
+        <v>d2 == 'イチイ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
@@ -2564,17 +2568,17 @@
         <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'ドロノキ ? '#00AA00' :</v>
+        <v>d2 == 'ドロノキ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
@@ -2585,17 +2589,17 @@
         <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'ドイツトウヒ ? '#00AA00' :</v>
+        <v>d2 == 'ドイツトウヒ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
@@ -2606,17 +2610,17 @@
         <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'ヒバ ? '#00AA00' :</v>
+        <v>d2 == 'ヒバ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
@@ -2627,17 +2631,17 @@
         <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'カツラ ? '#00AA00' :</v>
+        <v>d2 == 'カツラ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
@@ -2648,17 +2652,17 @@
         <v>92</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'ホオノキ ? '#00AA00' :</v>
+        <v>d2 == 'ホオノキ' ? '#00AA00' :</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
@@ -2669,17 +2673,17 @@
         <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="1"/>
-        <v>d2 == 'ナツツバキ ? '#00AA00' :</v>
+        <v>d2 == 'ナツツバキ' ? '#00AA00' :</v>
       </c>
     </row>
   </sheetData>

--- a/docs/国有林コード.xlsx
+++ b/docs/国有林コード.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOC\Dropbox\GitHub\fgb_twin_test\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E72577-FE66-4B15-B8F6-D9061D57ED05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{411986A8-BE16-43DA-AA6C-7F32BEB70C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3480" windowWidth="16200" windowHeight="11385" xr2:uid="{98886EF3-95AD-4D4A-B75E-F48096BC0F45}"/>
+    <workbookView xWindow="17190" yWindow="4920" windowWidth="39405" windowHeight="22575" xr2:uid="{98886EF3-95AD-4D4A-B75E-F48096BC0F45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="jyusyu_code" sheetId="2" r:id="rId2"/>
+    <sheet name="rinsyu_code" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="135">
   <si>
     <t>スギ</t>
   </si>
@@ -330,6 +332,204 @@
   </si>
   <si>
     <t>' ? '</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>樹種</t>
+    <rPh sb="0" eb="2">
+      <t>ジュシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>樹種区分</t>
+    <rPh sb="0" eb="2">
+      <t>ジュシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹・笹</t>
+    <rPh sb="0" eb="1">
+      <t>タケ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ササ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落葉広葉</t>
+    <rPh sb="0" eb="2">
+      <t>ラクヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常緑広葉</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウリョクコウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常緑針葉</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウリョクシンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常緑広葉</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落葉広葉</t>
+    <rPh sb="0" eb="4">
+      <t>ラクヨウコウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>林種</t>
+  </si>
+  <si>
+    <t>林種区分</t>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単</t>
+  </si>
+  <si>
+    <t>単未</t>
+  </si>
+  <si>
+    <t>複</t>
+  </si>
+  <si>
+    <t>複未</t>
+  </si>
+  <si>
+    <t>育</t>
+  </si>
+  <si>
+    <t>育未</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>天未</t>
+  </si>
+  <si>
+    <t>竹林</t>
+  </si>
+  <si>
+    <t>人伐</t>
+  </si>
+  <si>
+    <t>天伐</t>
+  </si>
+  <si>
+    <t>未立</t>
+  </si>
+  <si>
+    <t>人工林</t>
+    <rPh sb="0" eb="3">
+      <t>ジンコウリン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天然林</t>
+    <rPh sb="0" eb="2">
+      <t>テンネン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹林</t>
+    <rPh sb="0" eb="2">
+      <t>チクリン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天然林</t>
+    <rPh sb="0" eb="3">
+      <t>テンネンリン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改植</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未立・改植</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常緑針葉</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>林種コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>樹種コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広葉</t>
+    <rPh sb="0" eb="2">
+      <t>コウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>05</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -338,9 +538,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +555,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -379,11 +586,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F06612-66C1-4C27-812D-24D57A436627}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2690,4 +2903,1244 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A51F2BC-1520-4DBA-8273-FBCF3CA83B22}">
+  <dimension ref="A1:C95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B95">
+    <sortCondition ref="B2:B95"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A4A98C-95F4-4309-87F9-ABD956A565FF}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>